--- a/data/extractions/250527 Fiche d'extraction d'échantillons.xlsx
+++ b/data/extractions/250527 Fiche d'extraction d'échantillons.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\02 - Extractions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/extractions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE8AD49-17A5-4AFC-8EF2-5DD0EBF7F026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1EE8AD49-17A5-4AFC-8EF2-5DD0EBF7F026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A9069F-36DF-4396-B9B7-E8AC869AB3E9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Extractions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Extractions!$A$1:$L$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Extractions!$A$1:$L$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Extractions!$A$1:$L$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Extractions!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -246,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,9 +349,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +389,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,28 +647,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8F8353-8CB1-400B-B8E5-1BA03F155009}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="71.45" customHeight="1">
+    <row r="1" spans="1:12" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -706,7 +706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>41</v>
       </c>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42</v>
       </c>
@@ -782,7 +782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43</v>
       </c>
@@ -820,7 +820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44</v>
       </c>
@@ -858,7 +858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45</v>
       </c>
@@ -896,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>46</v>
       </c>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>47</v>
       </c>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>48</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>49</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>50</v>
       </c>
@@ -1094,23 +1094,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-05-30T10:47:20+00:00</Uploaded>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F56A3FBA1F9FF429D4C886089ACEF10" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="9259fe1b952dc853dcaf14f7078ccc22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="974e1998-2087-4290-81d3-cf83f1cc5cbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11627f76d2a82a971f29bd5674bd7693" ns2:_="">
     <xsd:import namespace="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
@@ -1254,14 +1237,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-05-30T10:47:20+00:00</Uploaded>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5C8D065-0006-41F8-8E7D-21E3F4FEEF2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA6493F8-46F4-4D28-8210-16CCA6DE286E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BD5A77D-2C96-4809-A195-F2AA12C1040C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BD5A77D-2C96-4809-A195-F2AA12C1040C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA6493F8-46F4-4D28-8210-16CCA6DE286E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5C8D065-0006-41F8-8E7D-21E3F4FEEF2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/extractions/250527 Fiche d'extraction d'échantillons.xlsx
+++ b/data/extractions/250527 Fiche d'extraction d'échantillons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/extractions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1EE8AD49-17A5-4AFC-8EF2-5DD0EBF7F026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A9069F-36DF-4396-B9B7-E8AC869AB3E9}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1EE8AD49-17A5-4AFC-8EF2-5DD0EBF7F026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DC5CE68-98FC-4411-BA46-948EB7ACF335}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
   <si>
     <t>Numéro</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>DIEUD0</t>
   </si>
   <si>
     <t>C</t>
@@ -649,7 +646,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,16 +726,16 @@
         <v>45804</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="L2" s="2">
         <v>5</v>
@@ -767,16 +764,16 @@
         <v>45804</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="L3" s="2">
         <v>6</v>
@@ -805,16 +802,16 @@
         <v>45804</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="L4" s="2">
         <v>7</v>
@@ -843,16 +840,16 @@
         <v>45804</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="L5" s="2">
         <v>8</v>
@@ -881,16 +878,16 @@
         <v>45804</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="L6" s="2">
         <v>9</v>
@@ -919,16 +916,16 @@
         <v>45804</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="L7" s="2">
         <v>10</v>
@@ -957,16 +954,16 @@
         <v>45804</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="L8" s="2">
         <v>11</v>
@@ -995,16 +992,16 @@
         <v>45804</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="L9" s="2">
         <v>12</v>
@@ -1033,16 +1030,16 @@
         <v>45804</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -1071,16 +1068,16 @@
         <v>45804</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="L11" s="2">
         <v>2</v>
@@ -1094,6 +1091,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-05-30T10:47:20+00:00</Uploaded>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F56A3FBA1F9FF429D4C886089ACEF10" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="9259fe1b952dc853dcaf14f7078ccc22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="974e1998-2087-4290-81d3-cf83f1cc5cbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11627f76d2a82a971f29bd5674bd7693" ns2:_="">
     <xsd:import namespace="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
@@ -1237,24 +1251,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5C8D065-0006-41F8-8E7D-21E3F4FEEF2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-05-30T10:47:20+00:00</Uploaded>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BD5A77D-2C96-4809-A195-F2AA12C1040C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA6493F8-46F4-4D28-8210-16CCA6DE286E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1270,22 +1285,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BD5A77D-2C96-4809-A195-F2AA12C1040C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5C8D065-0006-41F8-8E7D-21E3F4FEEF2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>